--- a/biology/Botanique/Eremocaulon_asymmetricum/Eremocaulon_asymmetricum.xlsx
+++ b/biology/Botanique/Eremocaulon_asymmetricum/Eremocaulon_asymmetricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremocaulon asymmetricum est une espèce de plantes monocotylédones de la famille des Poaceae,  sous-famille des Bambusoideae, originaire d'Amérique du Sud.
 Ces bambous ligneux du Brésil sont des plantes vivaces, rhizomateuses, à rhizomes allongés, pachymorphes. Les tiges (chaumes), ligneuses, ramifiées, atteignent 1,5 à 2 m de long avec un diamètre de 7 à 10 mm.
 Les épillets fertiles, sessiles, comptent de 3 à 11 fleurons, ceux du sommet étant réduits. Chaque fleuron compte trois lodicules, six anthères et un ovaire glabre à deux stigmates.
-Le fruit est un caryopse au péricarpe adhérent[2].
+Le fruit est un caryopse au péricarpe adhérent.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 novembre 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 novembre 2016) :
 Criciuma asymmetrica Soderstr. &amp; Londoño</t>
         </is>
       </c>
